--- a/lecture/corpus/eval-cv-201811319.xlsx
+++ b/lecture/corpus/eval-cv-201811319.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryota0530/university of Tsukuba/coins/B3/web_text_classfication/lecture/corpus/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E402E112-69B3-A147-9095-DD09531407C7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{255C18C9-D467-894F-831D-5DEE2D044727}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-35840" yWindow="8020" windowWidth="38400" windowHeight="21100" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -146,17 +146,17 @@
     <t>永崎遼太</t>
   </si>
   <si>
-    <t>All Results  
-1 : 0.873015873015873
-2 : 0.9464285714285714
+    <t>Results
+1 : 0.8988095238095238
+2 : 0.9603174603174603
 3 : 0.9523809523809523
 4 : 0.9563492063492064
 5 : 0.9405940594059405
 Average
-0.9337537325161087</t>
-  </si>
-  <si>
-    <t>交差検定法(nv(δ=50), 分割数=5)</t>
+0.9416902404526167</t>
+  </si>
+  <si>
+    <t>交差検定法(nv(δ=9), 分割数=5)</t>
   </si>
 </sst>
 </file>
@@ -726,7 +726,7 @@
         <v>19</v>
       </c>
       <c r="F13" s="7">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>18</v>
